--- a/storage/app/import/customer.xlsx
+++ b/storage/app/import/customer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="289">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wings Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 3 (Normal Price)</t>
   </si>
   <si>
     <t xml:space="preserve">Kawasn Kasatlan Angkatan Laut, Jl. Raya Juana</t>
@@ -1332,8 +1329,8 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35:S46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2820,21 +2817,21 @@
       <c r="A35" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C35" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="E35" s="28" t="s">
         <v>224</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>225</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H35" s="30" t="n">
         <v>8119402233</v>
@@ -2845,44 +2842,44 @@
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
       <c r="L35" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M35" s="31" t="s">
         <v>31</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O35" s="28"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D36" s="28" t="s">
+      <c r="E36" s="28" t="s">
         <v>231</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>232</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>24</v>
@@ -2890,13 +2887,13 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
       <c r="L36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="33" t="s">
         <v>233</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="33" t="s">
-        <v>234</v>
       </c>
       <c r="O36" s="28"/>
       <c r="P36" s="27"/>
@@ -2906,26 +2903,26 @@
     </row>
     <row r="37" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D37" s="26" t="s">
+      <c r="E37" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>237</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>24</v>
@@ -2933,44 +2930,44 @@
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="32" t="s">
         <v>239</v>
-      </c>
-      <c r="M37" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="32" t="s">
-        <v>240</v>
       </c>
       <c r="O37" s="28"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" s="26" t="s">
+      <c r="E38" s="28" t="s">
         <v>243</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>244</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>24</v>
@@ -2978,44 +2975,44 @@
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="32" t="s">
         <v>246</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="32" t="s">
-        <v>247</v>
       </c>
       <c r="O38" s="28"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="E39" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>251</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>24</v>
@@ -3023,13 +3020,13 @@
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M39" s="31" t="s">
         <v>37</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O39" s="28"/>
       <c r="P39" s="27"/>
@@ -3039,26 +3036,26 @@
     </row>
     <row r="40" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D40" s="28" t="s">
+      <c r="E40" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>257</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>24</v>
@@ -3066,13 +3063,13 @@
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
       <c r="L40" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="33" t="s">
         <v>258</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="O40" s="28"/>
       <c r="P40" s="27"/>
@@ -3082,26 +3079,26 @@
     </row>
     <row r="41" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D41" s="28" t="s">
+      <c r="E41" s="28" t="s">
         <v>261</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>262</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>24</v>
@@ -3109,13 +3106,13 @@
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
       <c r="L41" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M41" s="31" t="s">
         <v>37</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O41" s="28"/>
       <c r="P41" s="27"/>
@@ -3125,19 +3122,19 @@
     </row>
     <row r="42" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D42" s="36" t="s">
+      <c r="E42" s="37" t="s">
         <v>267</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>268</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28" t="s">
@@ -3148,13 +3145,13 @@
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
       <c r="L42" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M42" s="31" t="s">
         <v>37</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O42" s="28"/>
       <c r="P42" s="27"/>
@@ -3164,26 +3161,26 @@
     </row>
     <row r="43" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" s="28" t="s">
+      <c r="E43" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>273</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>24</v>
@@ -3191,13 +3188,13 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="39" t="s">
         <v>275</v>
-      </c>
-      <c r="M43" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>276</v>
       </c>
       <c r="O43" s="28"/>
       <c r="P43" s="27"/>
@@ -3207,16 +3204,16 @@
     </row>
     <row r="44" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>277</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>278</v>
       </c>
       <c r="E44" s="28" t="n">
         <v>8111120072</v>
@@ -3230,13 +3227,13 @@
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
       <c r="L44" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M44" s="31" t="s">
         <v>37</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O44" s="28"/>
       <c r="P44" s="27"/>
@@ -3246,16 +3243,16 @@
     </row>
     <row r="45" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" s="28" t="s">
         <v>281</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>282</v>
       </c>
       <c r="E45" s="28" t="n">
         <v>8129645293</v>
@@ -3269,13 +3266,13 @@
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
       <c r="L45" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="41" t="s">
         <v>283</v>
-      </c>
-      <c r="M45" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="41" t="s">
-        <v>284</v>
       </c>
       <c r="O45" s="28"/>
       <c r="P45" s="27"/>
@@ -3285,26 +3282,26 @@
     </row>
     <row r="46" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D46" s="28" t="s">
+      <c r="E46" s="28" t="s">
         <v>286</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>287</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>24</v>
@@ -3312,13 +3309,13 @@
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
       <c r="L46" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="41" t="s">
         <v>288</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="41" t="s">
-        <v>289</v>
       </c>
       <c r="O46" s="28"/>
       <c r="P46" s="27"/>

--- a/storage/app/import/customer.xlsx
+++ b/storage/app/import/customer.xlsx
@@ -598,7 +598,7 @@
     <t xml:space="preserve">PT. Sayap Garuda Indah</t>
   </si>
   <si>
-    <t xml:space="preserve">Dewa Ruci Building No. 2, By Pass Ngurah Ray, Simp</t>
+    <t xml:space="preserve">Dewa Ruci Building No. 2 Jalan ByPass Ngurah Rai Simpang Siur, Kuta 80361 Bali</t>
   </si>
   <si>
     <t xml:space="preserve">0361-767466</t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve">Transwisata Prima Aviation</t>
   </si>
   <si>
-    <t xml:space="preserve">Halim Perdana Kusuma Airport Lt.2 rOOM 225</t>
+    <t xml:space="preserve">Halim Perdana Kusuma Airport Lt.2 Room 225</t>
   </si>
   <si>
     <t xml:space="preserve">021-80889628, 808995</t>
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Wings Air</t>
   </si>
   <si>
-    <t xml:space="preserve">Kawasn Kasatlan Angkatan Laut, Jl. Raya Juana</t>
+    <t xml:space="preserve">Kawasan Kasatlan Angkatan Laut, Jl. Raya Juana</t>
   </si>
   <si>
     <t xml:space="preserve">021-63860180;0877-0315-4325;0899-1848-399</t>
@@ -1329,8 +1329,8 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35:B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2598,7 +2598,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>191</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
         <v>216</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
         <v>222</v>
       </c>
